--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.900000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.900000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.611290643040032e-23</v>
+        <v>7.644262483702744e-23</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>7.567524920533026e-23</v>
+        <v>7.603814529640883e-23</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>7.514903405901673e-23</v>
+        <v>7.552382429456429e-23</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>7.454188299003785e-23</v>
+        <v>7.49096149346818e-23</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>7.386141799696957e-23</v>
+        <v>7.420547031994735e-23</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>7.31152610783886e-23</v>
+        <v>7.342134355354755e-23</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>7.231103423287051e-23</v>
+        <v>7.256718773866784e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>7.145635945899409e-23</v>
+        <v>7.16529559784971e-23</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>7.055885875533495e-23</v>
+        <v>7.068860137622083e-23</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>6.962615412046857e-23</v>
+        <v>6.968407703502432e-23</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.866586755297404e-23</v>
+        <v>6.864933605809683e-23</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>6.768562105142679e-23</v>
+        <v>6.759433154862365e-23</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>6.669303661440222e-23</v>
+        <v>6.652901660979001e-23</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>6.569573624047962e-23</v>
+        <v>6.546334434478531e-23</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>6.470134192823429e-23</v>
+        <v>6.440726785679476e-23</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>6.371747567624298e-23</v>
+        <v>6.337074024900499e-23</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>6.275175948308103e-23</v>
+        <v>6.236371462460129e-23</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>6.18118153473277e-23</v>
+        <v>6.139614408677294e-23</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>6.090508333420367e-23</v>
+        <v>6.047768610042871e-23</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>6.003534487658507e-23</v>
+        <v>5.961205292179054e-23</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>5.920299305459922e-23</v>
+        <v>5.87974507976467e-23</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>5.840829317076026e-23</v>
+        <v>5.803187833857145e-23</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>5.765151052758343e-23</v>
+        <v>5.731333415514022e-23</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>5.693291042758306e-23</v>
+        <v>5.663981685792759e-23</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>5.625275817327627e-23</v>
+        <v>5.600932505751067e-23</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>5.56113190671774e-23</v>
+        <v>5.541985736446407e-23</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>5.500885841180087e-23</v>
+        <v>5.486941238936245e-23</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>5.444564150966357e-23</v>
+        <v>5.435598874278268e-23</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>5.39219336632799e-23</v>
+        <v>5.387758503529945e-23</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>5.343800017516515e-23</v>
+        <v>5.343219987748819e-23</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>5.299410634783398e-23</v>
+        <v>5.301783187992376e-23</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>5.25905174838028e-23</v>
+        <v>5.263247965318267e-23</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>5.222749888558629e-23</v>
+        <v>5.227414180783979e-23</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>5.190531585569929e-23</v>
+        <v>5.194081695447012e-23</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>5.162334731094742e-23</v>
+        <v>5.163012244826257e-23</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>5.13750398195338e-23</v>
+        <v>5.133712400143788e-23</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>5.115140518626696e-23</v>
+        <v>5.10558400770902e-23</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>5.09434477925288e-23</v>
+        <v>5.078028594532358e-23</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>5.07421720197004e-23</v>
+        <v>5.0504476876241e-23</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>5.053858224916307e-23</v>
+        <v>5.022242813994579e-23</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>5.032368286229785e-23</v>
+        <v>4.992815500654091e-23</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>5.008847824048667e-23</v>
+        <v>4.961567274613047e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>4.982397276511056e-23</v>
+        <v>4.92789966288174e-23</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.952117081755049e-23</v>
+        <v>4.89121419247046e-23</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>4.917107677918853e-23</v>
+        <v>4.850912390389633e-23</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>4.87646950314057e-23</v>
+        <v>4.806395783649547e-23</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.829302995558331e-23</v>
+        <v>4.75706589926054e-23</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.774708593310194e-23</v>
+        <v>4.702324264232866e-23</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.711786734534437e-23</v>
+        <v>4.641572405577006e-23</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.639719471515559e-23</v>
+        <v>4.574261780528565e-23</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.558738086547278e-23</v>
+        <v>4.500485748408571e-23</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>4.46980176026112e-23</v>
+        <v>4.420782985062559e-23</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>4.373884315367609e-23</v>
+        <v>4.335701124124979e-23</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>4.271959574577232e-23</v>
+        <v>4.245787799230251e-23</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>4.165001360600882e-23</v>
+        <v>4.151590644013157e-23</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>4.053983496149053e-23</v>
+        <v>4.053657292108121e-23</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.939879803932367e-23</v>
+        <v>3.952535377149684e-23</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.823664106661297e-23</v>
+        <v>3.848772532772253e-23</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.706310227046771e-23</v>
+        <v>3.742916392610642e-23</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.588791987799263e-23</v>
+        <v>3.635514590299258e-23</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>3.472083211629243e-23</v>
+        <v>3.5271147594725e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>3.357139139787428e-23</v>
+        <v>3.418257665940218e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>3.244458030044982e-23</v>
+        <v>3.309315171533592e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>3.134064075125372e-23</v>
+        <v>3.200483920650075e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>3.025959468535666e-23</v>
+        <v>3.091952426637791e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.920146403783339e-23</v>
+        <v>2.983909202845287e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.816627074375452e-23</v>
+        <v>2.876542762620689e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.715403673819075e-23</v>
+        <v>2.770041619312121e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.616478395621671e-23</v>
+        <v>2.664594286268128e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.519853433290306e-23</v>
+        <v>2.560389276836837e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.42553098033206e-23</v>
+        <v>2.457615104366377e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.333513230254378e-23</v>
+        <v>2.356460282205284e-23</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.243802376564337e-23</v>
+        <v>2.257113323701687e-23</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.156400612769135e-23</v>
+        <v>2.159762742203851e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.071310132375862e-23</v>
+        <v>2.064597051059917e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.988533128891944e-23</v>
+        <v>1.971804763618403e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.908071795824465e-23</v>
+        <v>1.881574393227444e-23</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.829928326680526e-23</v>
+        <v>1.794094453235195e-23</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.754104914967531e-23</v>
+        <v>1.70955345699015e-23</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.680603754192575e-23</v>
+        <v>1.628139917840457e-23</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.609427037862861e-23</v>
+        <v>1.550042349134383e-23</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.540576959485498e-23</v>
+        <v>1.475449264220095e-23</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.474055712567866e-23</v>
+        <v>1.404549176446056e-23</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.409865490617076e-23</v>
+        <v>1.337530599160431e-23</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.348008487140246e-23</v>
+        <v>1.274582045711404e-23</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.28848689564474e-23</v>
+        <v>1.215892029447406e-23</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.231302909637674e-23</v>
+        <v>1.161649063716618e-23</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.176522702834529e-23</v>
+        <v>1.112014155353163e-23</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.124545027206477e-23</v>
+        <v>1.067005328404075e-23</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.075876359958423e-23</v>
+        <v>1.026594293443396e-23</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.031023233563575e-23</v>
+        <v>9.907527372838249e-24</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>9.904921804951599e-24</v>
+        <v>9.594523467380867e-24</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>9.547897332265616e-24</v>
+        <v>9.326648086190244e-24</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>9.24422424231002e-24</v>
+        <v>9.103618097393564e-24</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>8.998967859817298e-24</v>
+        <v>8.925150369118239e-24</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>8.817193509520876e-24</v>
+        <v>8.790961769492362e-24</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>8.703966516153169e-24</v>
+        <v>8.700769166643287e-24</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>8.664352204446945e-24</v>
+        <v>8.65428942869863e-24</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>8.703415899135089e-24</v>
+        <v>8.651239423786038e-24</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>8.826222924950274e-24</v>
+        <v>8.691336020033139e-24</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.091762760251672e-24</v>
+        <v>4.052655585350855e-24</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>5.434486166951059e-24</v>
+        <v>5.424165792732296e-24</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>5.174268918706003e-24</v>
+        <v>5.116839250169225e-24</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.068424543175824e-24</v>
+        <v>5.045923891307381e-24</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>5.011213275640083e-24</v>
+        <v>5.039169153291136e-24</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>4.938506718168581e-24</v>
+        <v>4.971105308690457e-24</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.293777898968714e-24</v>
+        <v>5.286924461435763e-24</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>6.859594527007822e-24</v>
+        <v>6.813051721689117e-24</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>9.316405592400747e-24</v>
+        <v>9.279055137692698e-24</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.024109183322412e-23</v>
+        <v>1.027775960353765e-23</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0588351916036e-23</v>
+        <v>1.066719097274953e-23</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.089882759200846e-23</v>
+        <v>1.092927051386411e-23</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.057722866329145e-23</v>
+        <v>1.048942855323343e-23</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>9.812912566433796e-24</v>
+        <v>9.711998170998709e-24</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>9.216246238988777e-24</v>
+        <v>9.379939517390409e-24</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>8.909592531047075e-24</v>
+        <v>9.253690721379003e-24</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>8.837408680534774e-24</v>
+        <v>9.002119475434548e-24</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>8.939644240186341e-24</v>
+        <v>9.032441125843249e-24</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>8.67627705764647e-24</v>
+        <v>8.702781496839133e-24</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>8.219133806140219e-24</v>
+        <v>8.157952812121883e-24</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>7.887236766269663e-24</v>
+        <v>7.875399047842281e-24</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>7.507997740385655e-24</v>
+        <v>7.518891799887973e-24</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>7.133272862723827e-24</v>
+        <v>7.151479637308605e-24</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>6.826750649154255e-24</v>
+        <v>6.868049139646709e-24</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>6.567258120923403e-24</v>
+        <v>6.6330354176287e-24</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.32442902898609e-24</v>
+        <v>6.396741429135182e-24</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.068767852365299e-24</v>
+        <v>6.113244162667085e-24</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.779663321812926e-24</v>
+        <v>5.775127965445409e-24</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.441698093005086e-24</v>
+        <v>5.397489416031676e-24</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.040148781460475e-24</v>
+        <v>4.995647554932546e-24</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.584727866020751e-24</v>
+        <v>4.582563630448582e-24</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.11688942271281e-24</v>
+        <v>4.168136175662433e-24</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.680208725721351e-24</v>
+        <v>3.762059051351826e-24</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.313228710367952e-24</v>
+        <v>3.376235967527858e-24</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.021304631860178e-24</v>
+        <v>3.037144328756143e-24</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.796333087536173e-24</v>
+        <v>2.77702605747102e-24</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.627433286933508e-24</v>
+        <v>2.607176279510771e-24</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.498071219502962e-24</v>
+        <v>2.495626758136705e-24</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.391399719117993e-24</v>
+        <v>2.406011016984275e-24</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.298194565640138e-24</v>
+        <v>2.32070764968206e-24</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.216222709927598e-24</v>
+        <v>2.239286764776195e-24</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.143509850354396e-24</v>
+        <v>2.161954739297721e-24</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.078081685294648e-24</v>
+        <v>2.088917950277782e-24</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.017963913122375e-24</v>
+        <v>2.020382774747416e-24</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.961256450272902e-24</v>
+        <v>1.956531754571518e-24</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.907078796136095e-24</v>
+        <v>1.897219992057229e-24</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.855291270608745e-24</v>
+        <v>1.842064674648617e-24</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.805770870191005e-24</v>
+        <v>1.790677634090425e-24</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.758394591383035e-24</v>
+        <v>1.742670702127402e-24</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.713039430685057e-24</v>
+        <v>1.697655710504364e-24</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.66958238459723e-24</v>
+        <v>1.655244490966061e-24</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.627900449619732e-24</v>
+        <v>1.615048875257264e-24</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.587870622252726e-24</v>
+        <v>1.576680695122728e-24</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.549381656890275e-24</v>
+        <v>1.539799339187728e-24</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.512380556538013e-24</v>
+        <v>1.504299792885592e-24</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.476832328903125e-24</v>
+        <v>1.470149864848319e-24</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.442701986963836e-24</v>
+        <v>1.437317385027396e-24</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.40995454369832e-24</v>
+        <v>1.405770183374268e-24</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.37855501208477e-24</v>
+        <v>1.375476089840394e-24</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.348468405101362e-24</v>
+        <v>1.346402934377217e-24</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.319659735726315e-24</v>
+        <v>1.318518546936224e-24</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.292094016937807e-24</v>
+        <v>1.29179075746886e-24</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.265736261714018e-24</v>
+        <v>1.266187395926571e-24</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.240551483033163e-24</v>
+        <v>1.241676292260839e-24</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.21650469387342e-24</v>
+        <v>1.218225276423111e-24</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.193560907212982e-24</v>
+        <v>1.195802178364846e-24</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.171685136030029e-24</v>
+        <v>1.174374828037491e-24</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.150842393302774e-24</v>
+        <v>1.153911055392526e-24</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.130997692009397e-24</v>
+        <v>1.1343786903814e-24</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.112116045128081e-24</v>
+        <v>1.115745562955561e-24</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.094162465637035e-24</v>
+        <v>1.097979503066485e-24</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.077101966514441e-24</v>
+        <v>1.081048340665623e-24</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.06089956073849e-24</v>
+        <v>1.064919905704432e-24</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.045520261287368e-24</v>
+        <v>1.049562028134366e-24</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.030929081139279e-24</v>
+        <v>1.034942537906895e-24</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.017091033272408e-24</v>
+        <v>1.021029264973471e-24</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.00397113066494e-24</v>
+        <v>1.007790039285548e-24</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.915343862950778e-25</v>
+        <v>9.951926907945945e-25</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.797458131410078e-25</v>
+        <v>9.832050494520638e-25</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.685704241809203e-25</v>
+        <v>9.717949452094144e-25</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.57973232393003e-25</v>
+        <v>9.609302080181001e-25</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.479192507554559e-25</v>
+        <v>9.505786678295889e-25</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>9.383734922464661e-25</v>
+        <v>9.407081545953348e-25</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>9.293009698442247e-25</v>
+        <v>9.312864982667957e-25</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>9.206666965269187e-25</v>
+        <v>9.222815287954264e-25</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>9.124356852727479e-25</v>
+        <v>9.136610761326933e-25</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>9.045729490598996e-25</v>
+        <v>9.053929702300511e-25</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>8.970435013046695e-25</v>
+        <v>8.974450415464022e-25</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>8.898139207985103e-25</v>
+        <v>8.897869336706578e-25</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>8.828558675955413e-25</v>
+        <v>8.823941756753339e-25</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>8.761420309554449e-25</v>
+        <v>8.752434887327988e-25</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>8.69645100137914e-25</v>
+        <v>8.683115940154302e-25</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>8.633377644026303e-25</v>
+        <v>8.615752126955965e-25</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>8.571927130092805e-25</v>
+        <v>8.550110659456691e-25</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>8.511826352175479e-25</v>
+        <v>8.485958749380167e-25</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>8.452802202871234e-25</v>
+        <v>8.423063608450164e-25</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>8.394581574776907e-25</v>
+        <v>8.36119244839037e-25</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>8.336891360489357e-25</v>
+        <v>8.300112480924499e-25</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>8.279458452605411e-25</v>
+        <v>8.239590917776237e-25</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>8.222009743721988e-25</v>
+        <v>8.179394970669356e-25</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>8.16427212643592e-25</v>
+        <v>8.11929185132754e-25</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>8.105972493344037e-25</v>
+        <v>8.059048771474481e-25</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>8.046837737043255e-25</v>
+        <v>7.998432942833944e-25</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>7.986594750130404e-25</v>
+        <v>7.93721157712962e-25</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>7.924970425202344e-25</v>
+        <v>7.87515188608522e-25</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>7.861691654855908e-25</v>
+        <v>7.812021081424435e-25</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>7.79648533168801e-25</v>
+        <v>7.747586374871032e-25</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>7.729078348295483e-25</v>
+        <v>7.681614978148702e-25</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>7.659197597275154e-25</v>
+        <v>7.613874102981126e-25</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>7.586569971223944e-25</v>
+        <v>7.54413096109208e-25</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.510922362738685e-25</v>
+        <v>7.47215276420525e-25</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>7.43198166441623e-25</v>
+        <v>7.397706724044347e-25</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>7.34947476885341e-25</v>
+        <v>7.320560052333056e-25</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>7.26312856864715e-25</v>
+        <v>7.240479960795158e-25</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>7.17272377313678e-25</v>
+        <v>7.157261679390137e-25</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>7.078328627466932e-25</v>
+        <v>7.07085013584103e-25</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>6.980107012994623e-25</v>
+        <v>6.981240048286048e-25</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>6.878222875482218e-25</v>
+        <v>6.888426168394261e-25</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>6.772840160692106e-25</v>
+        <v>6.79240324783477e-25</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>6.664122814386639e-25</v>
+        <v>6.693166038276632e-25</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>6.552234782328313e-25</v>
+        <v>6.59070929138904e-25</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>6.437340010279475e-25</v>
+        <v>6.485027758841051e-25</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>6.319602444002472e-25</v>
+        <v>6.376116192301722e-25</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>6.199186029259805e-25</v>
+        <v>6.263969343440249e-25</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>6.076254711813823e-25</v>
+        <v>6.148581963925692e-25</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>5.950972437426922e-25</v>
+        <v>6.029948805427152e-25</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>5.82350315186144e-25</v>
+        <v>5.908064619613678e-25</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>5.694010800879891e-25</v>
+        <v>5.782924158154475e-25</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>5.562659330244619e-25</v>
+        <v>5.654522172718603e-25</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>5.429612685717956e-25</v>
+        <v>5.522853414975099e-25</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>5.295034813062423e-25</v>
+        <v>5.387912636593185e-25</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>5.159080232723206e-25</v>
+        <v>5.249713888896376e-25</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>5.021803343781698e-25</v>
+        <v>5.108476235697079e-25</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.883198171361145e-25</v>
+        <v>4.964542364926736e-25</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.743257908038484e-25</v>
+        <v>4.818256669272306e-25</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.601975746390472e-25</v>
+        <v>4.66996354142055e-25</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.459344878993924e-25</v>
+        <v>4.520007374058293e-25</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>4.315358498425595e-25</v>
+        <v>4.368732559872295e-25</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.170009797262427e-25</v>
+        <v>4.216483491549516e-25</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.023291968081175e-25</v>
+        <v>4.063604561776714e-25</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.875198203458586e-25</v>
+        <v>3.910440163240649e-25</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.725721695971614e-25</v>
+        <v>3.757334688628284e-25</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.574855638197007e-25</v>
+        <v>3.604632530626377e-25</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.422593222711512e-25</v>
+        <v>3.452678081921685e-25</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.269037698790855e-25</v>
+        <v>3.301891606054671e-25</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.115640470679042e-25</v>
+        <v>3.153622757227434e-25</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.964756516685867e-25</v>
+        <v>3.009844095256541e-25</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.818757468574233e-25</v>
+        <v>2.872539660510985e-25</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.68001495810724e-25</v>
+        <v>2.743693493359937e-25</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.550900617047786e-25</v>
+        <v>2.625289634172385e-25</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.433786077158837e-25</v>
+        <v>2.519312123317377e-25</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.331042970203317e-25</v>
+        <v>2.427745001163924e-25</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.245042927944286e-25</v>
+        <v>2.352572308081159e-25</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.17815758214466e-25</v>
+        <v>2.295778084438087e-25</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.132758564567391e-25</v>
+        <v>2.259346370603745e-25</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.111217506975486e-25</v>
+        <v>2.245261206947215e-25</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.115906041131887e-25</v>
+        <v>2.255506633837526e-25</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.148965130889074e-25</v>
+        <v>2.291853523936262e-25</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.209254129266386e-25</v>
+        <v>2.353040106757436e-25</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.2931903512905e-25</v>
+        <v>2.435547845196128e-25</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.397132968466391e-25</v>
+        <v>2.535804469830696e-25</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.51744115229907e-25</v>
+        <v>2.650237711239529e-25</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>2.650474074293381e-25</v>
+        <v>2.775275300000861e-25</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>2.79259090595433e-25</v>
+        <v>2.907344966693076e-25</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>2.940150818786871e-25</v>
+        <v>3.042874441894511e-25</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.089512984296024e-25</v>
+        <v>3.17829145618356e-25</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.237036573986607e-25</v>
+        <v>3.310023740138439e-25</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.379080759363643e-25</v>
+        <v>3.434499024337545e-25</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>3.512004711932143e-25</v>
+        <v>3.548145039359261e-25</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.632167603196936e-25</v>
+        <v>3.647389515781819e-25</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.735928604663044e-25</v>
+        <v>3.728660184183613e-25</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.819955533435201e-25</v>
+        <v>3.789093785649321e-25</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.885235184616817e-25</v>
+        <v>3.835748475273367e-25</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>3.93593240154502e-25</v>
+        <v>3.8829829158814e-25</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.976308696936834e-25</v>
+        <v>3.945322666146149e-25</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>4.02294918335027e-25</v>
+        <v>4.035993026345598e-25</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>4.124433948388584e-25</v>
+        <v>4.16453269295154e-25</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.292103058256406e-25</v>
+        <v>4.322939787684105e-25</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.467875127824094e-25</v>
+        <v>4.475527279533457e-25</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.594931725689609e-25</v>
+        <v>4.5882230876687e-25</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.660425960012233e-25</v>
+        <v>4.650874419625426e-25</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.667181671469776e-25</v>
+        <v>4.661852923378838e-25</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>4.618041917961857e-25</v>
+        <v>4.619540700535586e-25</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>4.516386935442054e-25</v>
+        <v>4.52299549472391e-25</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.37618943124582e-25</v>
+        <v>4.384597855159018e-25</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>4.221119057705252e-25</v>
+        <v>4.228924777788894e-25</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>4.075203101728239e-25</v>
+        <v>4.081003077659707e-25</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>3.962468850222865e-25</v>
+        <v>3.965859569817832e-25</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.906943590097008e-25</v>
+        <v>3.908521069309427e-25</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.932654608258614e-25</v>
+        <v>3.934014391180725e-25</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>4.063629191615715e-25</v>
+        <v>4.067366350478042e-25</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>4.323894627076149e-25</v>
+        <v>4.333603762247499e-25</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>4.722011456070924e-25</v>
+        <v>4.74143362741808e-25</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>5.086947333916387e-25</v>
+        <v>5.110064611762167e-25</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>5.189808268171151e-25</v>
+        <v>5.197429185689131e-25</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>5.087095348560724e-25</v>
+        <v>5.061488454395171e-25</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.922457200133713e-25</v>
+        <v>4.852002918079312e-25</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.772540480614654e-25</v>
+        <v>4.655036330533818e-25</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.628600483587274e-25</v>
+        <v>4.475470047564207e-25</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>4.476351669642226e-25</v>
+        <v>4.312917701316284e-25</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>4.301510360296518e-25</v>
+        <v>4.166993252526748e-25</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>4.09961784263747e-25</v>
+        <v>4.039045493980802e-25</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.898974519887981e-25</v>
+        <v>3.936207621893799e-25</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.734700112530039e-25</v>
+        <v>3.866816945619692e-25</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.641914341045618e-25</v>
+        <v>3.839210774512436e-25</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.651641369438668e-25</v>
+        <v>3.859858181757144e-25</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.739828041382732e-25</v>
+        <v>3.910104074268764e-25</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.842987357807998e-25</v>
+        <v>3.953305148646027e-25</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.896775356556197e-25</v>
+        <v>3.952427187714227e-25</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.850815029110464e-25</v>
+        <v>3.87867570671486e-25</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.714694073054229e-25</v>
+        <v>3.7386320906295e-25</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.514089593532927e-25</v>
+        <v>3.548369587622734e-25</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>3.274678892441879e-25</v>
+        <v>3.32396156193066e-25</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>3.022139252909015e-25</v>
+        <v>3.08148138197806e-25</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.780109198846138e-25</v>
+        <v>2.837457440095271e-25</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.564579198443148e-25</v>
+        <v>2.610125072796493e-25</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.389746663903094e-25</v>
+        <v>2.418119802812593e-25</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.269809007429136e-25</v>
+        <v>2.280077152874549e-25</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.217876264503836e-25</v>
+        <v>2.21336366423131e-25</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.229987187283629e-25</v>
+        <v>2.215423488765914e-25</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.288616962042591e-25</v>
+        <v>2.267871936701612e-25</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.375866597076457e-25</v>
+        <v>2.351887648139408e-25</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.473837100680828e-25</v>
+        <v>2.44864926318018e-25</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.564629481151429e-25</v>
+        <v>2.539335421924923e-25</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.63034474678395e-25</v>
+        <v>2.605124764474599e-25</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.653083905874076e-25</v>
+        <v>2.627195930930165e-25</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.615023815182015e-25</v>
+        <v>2.586807629642991e-25</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.508220969601012e-25</v>
+        <v>2.475647855106763e-25</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.344309239293052e-25</v>
+        <v>2.306071153144684e-25</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.137227161515671e-25</v>
+        <v>2.092864955509442e-25</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.900913273526189e-25</v>
+        <v>1.850816693953501e-25</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.649306112581989e-25</v>
+        <v>1.594713800229387e-25</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.396344215940344e-25</v>
+        <v>1.339343706089517e-25</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.155966120858869e-25</v>
+        <v>1.099493843286653e-25</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>9.421103645948315e-26</v>
+        <v>8.899516435732091e-26</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>7.686862712299828e-26</v>
+        <v>7.254721971134104e-26</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.435623337642791e-26</v>
+        <v>6.141228558269478e-26</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.612032193704647e-26</v>
+        <v>5.491317421643782e-26</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.142713933857398e-26</v>
+        <v>5.217317805684421e-26</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.954293211473008e-26</v>
+        <v>5.231558954818855e-26</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>4.973394679923619e-26</v>
+        <v>5.446370113474446e-26</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.126642992581084e-26</v>
+        <v>5.77408052607854e-26</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.340662802817503e-26</v>
+        <v>6.127019437058695e-26</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.542078764004657e-26</v>
+        <v>6.417516090841966e-26</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>5.661484528926712e-26</v>
+        <v>6.562837192226355e-26</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>5.68983861044679e-26</v>
+        <v>6.555343713723659e-26</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>5.66507325095325e-26</v>
+        <v>6.445832244458868e-26</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>5.626358538250633e-26</v>
+        <v>6.28663926108354e-26</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>5.612864560143452e-26</v>
+        <v>6.130101240249094e-26</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.663761404436258e-26</v>
+        <v>6.028554658606945e-26</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.818219158933531e-26</v>
+        <v>6.03433599280865e-26</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>6.11540791143979e-26</v>
+        <v>6.199781719505593e-26</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>6.594497749759541e-26</v>
+        <v>6.577228315349217e-26</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>7.280761468956331e-26</v>
+        <v>7.201828162568917e-26</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>8.142158533353605e-26</v>
+        <v>8.037865330735867e-26</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>9.131875749225878e-26</v>
+        <v>9.031357400004074e-26</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.020309990772456e-25</v>
+        <v>1.012832193182782e-25</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.130901780000154e-25</v>
+        <v>1.127477648766189e-25</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.240281621720722e-25</v>
+        <v>1.241673862895951e-25</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.34376819504935e-25</v>
+        <v>1.350022591717548e-25</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.436680179101216e-25</v>
+        <v>1.447125591376447e-25</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.514375694917621e-25</v>
+        <v>1.527625718171377e-25</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.5796102874525e-25</v>
+        <v>1.593874256625793e-25</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.651193992350709e-25</v>
+        <v>1.664951948792824e-25</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.750041029440402e-25</v>
+        <v>1.762132185536883e-25</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.897065618549817e-25</v>
+        <v>1.906688357722467e-25</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.113181979507163e-25</v>
+        <v>2.119893856214043e-25</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.419304332140812e-25</v>
+        <v>2.423022071876237e-25</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.836346896278705e-25</v>
+        <v>2.837346395573253e-25</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.385223891749167e-25</v>
+        <v>3.384140218169675e-25</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>4.086379919993338e-25</v>
+        <v>4.084203975408427e-25</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>4.933952232989953e-25</v>
+        <v>4.931843834483827e-25</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>5.882341935804227e-25</v>
+        <v>5.881347482244312e-25</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>6.882650725011995e-25</v>
+        <v>6.88367975407833e-25</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>7.885980297189181e-25</v>
+        <v>7.889805485374431e-25</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>8.843432348910345e-25</v>
+        <v>8.850689511519786e-25</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>9.706108576751427e-25</v>
+        <v>9.717296667902954e-25</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.042511067728819e-24</v>
+        <v>1.044059178991231e-24</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.095154034709544e-24</v>
+        <v>1.09715397129353e-24</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.124665811074539e-24</v>
+        <v>1.127126829742528e-24</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.132489172349259e-24</v>
+        <v>1.135409460029113e-24</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.121800389545399e-24</v>
+        <v>1.12516777951533e-24</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.095776687675011e-24</v>
+        <v>1.099568659957721e-24</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.057595291750141e-24</v>
+        <v>1.06177897311282e-24</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.010433426782831e-24</v>
+        <v>1.014965590737161e-24</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>9.57468317785101e-25</v>
+        <v>9.622953845872516e-25</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>9.01877189769044e-25</v>
+        <v>9.069352264196755e-25</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>8.468372208771624e-25</v>
+        <v>8.520519413695716e-25</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>7.948973793808466e-25</v>
+        <v>8.001874707126789e-25</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>7.464035491071878e-25</v>
+        <v>7.516923353516328e-25</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>7.012189400656309e-25</v>
+        <v>7.064369378530282e-25</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>6.592067622656456e-25</v>
+        <v>6.642916807834848e-25</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>6.202302257166844e-25</v>
+        <v>6.251269667096045e-25</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>5.841525404282517e-25</v>
+        <v>5.888131981980421e-25</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>5.508369164097985e-25</v>
+        <v>5.552207778153987e-25</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>5.201465636707946e-25</v>
+        <v>5.242201081282933e-25</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.91944692220697e-25</v>
+        <v>4.956815917033333e-25</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>4.660945120690007e-25</v>
+        <v>4.694756311071636e-25</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>4.424592332251614e-25</v>
+        <v>4.454726289063896e-25</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>4.209020656986396e-25</v>
+        <v>4.235429876676217e-25</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>4.012862194989241e-25</v>
+        <v>4.035571099574988e-25</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>3.83474904635474e-25</v>
+        <v>3.853853983426298e-25</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>3.673313311177518e-25</v>
+        <v>3.688982553896271e-25</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>3.527187089552415e-25</v>
+        <v>3.539660836651247e-25</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>3.395002481574048e-25</v>
+        <v>3.404592857357341e-25</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>3.27545530990809e-25</v>
+        <v>3.282537311244275e-25</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>3.167667078969476e-25</v>
+        <v>3.172618099073769e-25</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>3.070933707439484e-25</v>
+        <v>3.074108756998409e-25</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.984551640927474e-25</v>
+        <v>2.986283273238654e-25</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.907817325042861e-25</v>
+        <v>2.908415636015013e-25</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.840027205395026e-25</v>
+        <v>2.839779833547967e-25</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.780477727593445e-25</v>
+        <v>2.779649854058088e-25</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>2.728465337247496e-25</v>
+        <v>2.72729968576585e-25</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.683286479966573e-25</v>
+        <v>2.682003316891745e-25</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.64423760136013e-25</v>
+        <v>2.643034735656324e-25</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.610615147037555e-25</v>
+        <v>2.609667930280074e-25</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.581715562608252e-25</v>
+        <v>2.581176888983492e-25</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.556835293681656e-25</v>
+        <v>2.556835599987113e-25</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.535270785867166e-25</v>
+        <v>2.535918051511434e-25</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.516318484774188e-25</v>
+        <v>2.517698231776955e-25</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.499274836012157e-25</v>
+        <v>2.501450129004211e-25</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.483436285190455e-25</v>
+        <v>2.486447731413679e-25</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.468099277918509e-25</v>
+        <v>2.471965027225885e-25</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.452560259805747e-25</v>
+        <v>2.457276004661351e-25</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.43611567646155e-25</v>
+        <v>2.441654651940558e-25</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.418061973495362e-25</v>
+        <v>2.424374957284047e-25</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.397695596516562e-25</v>
+        <v>2.404710908912293e-25</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.374312991134577e-25</v>
+        <v>2.38193649504582e-25</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.347210602958845e-25</v>
+        <v>2.355325703905164e-25</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.31568487759873e-25</v>
+        <v>2.324152523710784e-25</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.279032260663665e-25</v>
+        <v>2.287690942683214e-25</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.236612785195248e-25</v>
+        <v>2.245280484475035e-25</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.188527871081839e-25</v>
+        <v>2.197024771958878e-25</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.135358290899467e-25</v>
+        <v>2.143521465656376e-25</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.07769285322692e-25</v>
+        <v>2.085376508274722e-25</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.016120366642828e-25</v>
+        <v>2.023195842520953e-25</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.951229639725977e-25</v>
+        <v>1.95758541110226e-25</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.883609481055164e-25</v>
+        <v>1.889151156725847e-25</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.813848699209002e-25</v>
+        <v>1.818499022098733e-25</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.742536102766284e-25</v>
+        <v>1.746234949928119e-25</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.670260500305812e-25</v>
+        <v>1.672964882921212e-25</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.597610700406189e-25</v>
+        <v>1.599294763785022e-25</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.525175511646281e-25</v>
+        <v>1.525830535226821e-25</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.453543742604691e-25</v>
+        <v>1.453178139953616e-25</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.383304201860219e-25</v>
+        <v>1.381943520672618e-25</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.315045697991661e-25</v>
+        <v>1.312732620091027e-25</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.249357039577629e-25</v>
+        <v>1.24615138091586e-25</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.186827035196919e-25</v>
+        <v>1.182805745854323e-25</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.128033286276291e-25</v>
+        <v>1.123290111039714e-25</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.073229585263985e-25</v>
+        <v>1.067865256688664e-25</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.022304324463391e-25</v>
+        <v>1.016415496297081e-25</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>9.751263326976012e-26</v>
+        <v>9.688049873774247e-26</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.315644387895839e-26</v>
+        <v>9.248978874420297e-26</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>8.914874715624702e-26</v>
+        <v>8.845583540033937e-26</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>8.547642598392407e-26</v>
+        <v>8.476505445738637e-26</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.212636324429859e-26</v>
+        <v>8.140386166658966e-26</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>7.908544181967843e-26</v>
+        <v>7.835867277919378e-26</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>7.634054459236343e-26</v>
+        <v>7.561590354643514e-26</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>7.387855444466168e-26</v>
+        <v>7.316196971955855e-26</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>7.168635425888035e-26</v>
+        <v>7.098328704980777e-26</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>6.975082691732074e-26</v>
+        <v>6.906627128842079e-26</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>6.805885530229021e-26</v>
+        <v>6.739733818664161e-26</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>6.659732229609526e-26</v>
+        <v>6.596290349571336e-26</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>6.535311078103853e-26</v>
+        <v>6.474938296687535e-26</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>6.431310363942671e-26</v>
+        <v>6.374319235137087e-26</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>6.346418375356575e-26</v>
+        <v>6.293074740044255e-26</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>6.279323400575937e-26</v>
+        <v>6.229846386533078e-26</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>6.228713727831412e-26</v>
+        <v>6.183275749727869e-26</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>6.193277645353434e-26</v>
+        <v>6.152004404752734e-26</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>6.171703441372582e-26</v>
+        <v>6.134673926731914e-26</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>6.162679404119387e-26</v>
+        <v>6.1299258907896e-26</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>6.164893821824362e-26</v>
+        <v>6.136401872049976e-26</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>6.177034982718044e-26</v>
+        <v>6.152743445637243e-26</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>6.197791175030937e-26</v>
+        <v>6.177592186675566e-26</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>6.22585068699361e-26</v>
+        <v>6.209589670289184e-26</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>6.259901806836572e-26</v>
+        <v>6.247377471602265e-26</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>6.298632822790315e-26</v>
+        <v>6.289597165738967e-26</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>6.340732023085437e-26</v>
+        <v>6.334890327823555e-26</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>6.384887695952427e-26</v>
+        <v>6.381898532980182e-26</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>6.429788129621775e-26</v>
+        <v>6.429263356332999e-26</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>6.474121612324092e-26</v>
+        <v>6.475626373006288e-26</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>6.516576432289824e-26</v>
+        <v>6.519629158124156e-26</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>6.555840877749574e-26</v>
+        <v>6.559913286810871e-26</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>6.590759658800971e-26</v>
+        <v>6.595281139180907e-26</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>6.622567275268109e-26</v>
+        <v>6.626991849770945e-26</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>6.654363413254909e-26</v>
+        <v>6.658222004092746e-26</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>6.689297235553511e-26</v>
+        <v>6.692199050740797e-26</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>6.730517904956044e-26</v>
+        <v>6.73215043830958e-26</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>6.781174584254747e-26</v>
+        <v>6.781303615393688e-26</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>6.844416436241757e-26</v>
+        <v>6.842886030587606e-26</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>6.923392623709164e-26</v>
+        <v>6.920125132485781e-26</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>7.021252309449277e-26</v>
+        <v>7.01624836968287e-26</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>7.141144656254089e-26</v>
+        <v>7.134483190773214e-26</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>7.286218826915971e-26</v>
+        <v>7.278057044351543e-26</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>7.459623984227002e-26</v>
+        <v>7.450197379012285e-26</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>7.664509290979152e-26</v>
+        <v>7.654131643349761e-26</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>7.904023909964954e-26</v>
+        <v>7.893087285958857e-26</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>8.181317003976412e-26</v>
+        <v>8.170291755433927e-26</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>8.499537735805382e-26</v>
+        <v>8.488972500369182e-26</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>8.861835268244611e-26</v>
+        <v>8.852356969359718e-26</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>9.271358764085997e-26</v>
+        <v>9.263672610999786e-26</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>9.731257386121271e-26</v>
+        <v>9.726146873883469e-26</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.024468029714343e-25</v>
+        <v>1.024300720660612e-25</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.081477665994426e-25</v>
+        <v>1.081748105776186e-25</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.144469563731532e-25</v>
+        <v>1.145279587594462e-25</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.213585070884194e-25</v>
+        <v>1.215042329027344e-25</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.287098965659912e-25</v>
+        <v>1.28929526850646e-25</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.362149884235338e-25</v>
+        <v>1.365148021651079e-25</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.435860364144266e-25</v>
+        <v>1.439693918671617e-25</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.505352942920229e-25</v>
+        <v>1.510026289778229e-25</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.567750158097009e-25</v>
+        <v>1.57323846518132e-25</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.620174547208202e-25</v>
+        <v>1.626423775091106e-25</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.659748647787433e-25</v>
+        <v>1.666675549717835e-25</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.683594997368434e-25</v>
+        <v>1.691087119271863e-25</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.688836133484823e-25</v>
+        <v>1.696751813963426e-25</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.672594593670279e-25</v>
+        <v>1.680762964002829e-25</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.631992915458436e-25</v>
+        <v>1.640213899600325e-25</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.564153636382954e-25</v>
+        <v>1.572197950966198e-25</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.467210086846799e-25</v>
+        <v>1.47482650424016e-25</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.346243574084539e-25</v>
+        <v>1.353208847135783e-25</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.209256221868873e-25</v>
+        <v>1.215396071455016e-25</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.064260261632794e-25</v>
+        <v>1.069449449288774e-25</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>9.192679248096674e-26</v>
+        <v>9.234302527283443e-26</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>7.822914428328565e-26</v>
+        <v>7.853997538650149e-26</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>6.613430471353548e-26</v>
+        <v>6.634192247897002e-26</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>5.64434969150537e-26</v>
+        <v>5.655499375936994e-26</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>4.995794403116911e-26</v>
+        <v>4.99853164368224e-26</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>4.729611835201888e-26</v>
+        <v>4.725534209830827e-26</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.824191918005417e-26</v>
+        <v>4.814872617715202e-26</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>5.234114366562056e-26</v>
+        <v>5.220981709301916e-26</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>5.913957099176427e-26</v>
+        <v>5.898294520735632e-26</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>6.818298034151247e-26</v>
+        <v>6.801244088159117e-26</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>7.901715089792033e-26</v>
+        <v>7.884263447717935e-26</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>9.118786184401919e-26</v>
+        <v>9.101785635555265e-26</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.042408923628356e-25</v>
+        <v>1.04082436878138e-25</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.177220216374318e-25</v>
+        <v>1.175807064063984e-25</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.311770288508351e-25</v>
+        <v>1.310569953017613e-25</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.441516931860726e-25</v>
+        <v>1.440556339256544e-25</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.561917938262065e-25</v>
+        <v>1.561209526395405e-25</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.668431099542634e-25</v>
+        <v>1.667972818048464e-25</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.75651420753275e-25</v>
+        <v>1.756289517830043e-25</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.821625054062958e-25</v>
+        <v>1.821602929354694e-25</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.859221430963557e-25</v>
+        <v>1.85935635623672e-25</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.864761130064942e-25</v>
+        <v>1.864993102090519e-25</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.834664794889304e-25</v>
+        <v>1.834921932028651e-25</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.7718080969883e-25</v>
+        <v>1.772024135525537e-25</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.681720037194987e-25</v>
+        <v>1.681841523177337e-25</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.569937773213564e-25</v>
+        <v>1.569924084560534e-25</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.441998462748591e-25</v>
+        <v>1.441821809251969e-25</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.303439263504198e-25</v>
+        <v>1.303084686828055e-25</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.159797333184862e-25</v>
+        <v>1.15926270686555e-25</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.016609829495077e-25</v>
+        <v>1.015905858941228e-25</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>8.794139101389475e-26</v>
+        <v>8.785641326314779e-26</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>7.537467328209712e-26</v>
+        <v>7.527875175130774e-26</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>6.451417051416956e-26</v>
+        <v>6.441222427117996e-26</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>5.570550772746664e-26</v>
+        <v>5.560316487610276e-26</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>4.874201980936339e-26</v>
+        <v>4.864409364437813e-26</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.332626545806839e-26</v>
+        <v>4.32365040010475e-26</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.916080337177648e-26</v>
+        <v>3.908188937113855e-26</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.594819224870012e-26</v>
+        <v>3.588174317969653e-26</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>3.339099078703813e-26</v>
+        <v>3.333755885175308e-26</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>3.119272810517079e-26</v>
+        <v>3.115180391502607e-26</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.915334138502224e-26</v>
+        <v>2.912371980555337e-26</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.724965115363641e-26</v>
+        <v>2.723010253307489e-26</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.547742636261434e-26</v>
+        <v>2.546676843647617e-26</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.383243596355666e-26</v>
+        <v>2.382953385464231e-26</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.23104489080596e-26</v>
+        <v>2.231421512645405e-26</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.090723414772389e-26</v>
+        <v>2.091662859079662e-26</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.961856063414981e-26</v>
+        <v>1.963259058655479e-26</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.844019731893424e-26</v>
+        <v>1.845791745260993e-26</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.736791315367758e-26</v>
+        <v>1.738842552784693e-26</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.639747708997984e-26</v>
+        <v>1.64199311511503e-26</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.552465807943847e-26</v>
+        <v>1.554825066140198e-26</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.474522507365356e-26</v>
+        <v>1.476920039748657e-26</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.40549470242249e-26</v>
+        <v>1.407859669828833e-26</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.344959288275041e-26</v>
+        <v>1.34722559026897e-26</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.292493160083041e-26</v>
+        <v>1.294599434957546e-26</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.247673213006311e-26</v>
+        <v>1.249562837782834e-26</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.210076342204824e-26</v>
+        <v>1.211697432633255e-26</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.17927944283852e-26</v>
+        <v>1.180584853397201e-26</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.154859410067265e-26</v>
+        <v>1.155806733962984e-26</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.136393139051007e-26</v>
+        <v>1.136944708219003e-26</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.123457524949675e-26</v>
+        <v>1.123580410053637e-26</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.115629462923163e-26</v>
+        <v>1.115295473355229e-26</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.112485848131406e-26</v>
+        <v>1.111671532012162e-26</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.113603575734319e-26</v>
+        <v>1.112290219912801e-26</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.118559540891822e-26</v>
+        <v>1.116733170945517e-26</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.126930638763826e-26</v>
+        <v>1.12458201899867e-26</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.138293764510267e-26</v>
+        <v>1.135418397960643e-26</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.152225813291055e-26</v>
+        <v>1.148823941719798e-26</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.168303680266094e-26</v>
+        <v>1.164380284164488e-26</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.186104260595333e-26</v>
+        <v>1.18166905918311e-26</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.205204449438677e-26</v>
+        <v>1.200271900664018e-26</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.225181141956025e-26</v>
+        <v>1.219770442495564e-26</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.245611233307332e-26</v>
+        <v>1.239746318566149e-26</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.266071618652501e-26</v>
+        <v>1.259781162764127e-26</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.286139193151432e-26</v>
+        <v>1.279456608977846e-26</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.305390851964079e-26</v>
+        <v>1.29835429109571e-26</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.323403490250328e-26</v>
+        <v>1.316055843006056e-26</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.33975400317013e-26</v>
+        <v>1.332142898597282e-26</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.354019285883387e-26</v>
+        <v>1.346197091757741e-26</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.365776352232645e-26</v>
+        <v>1.357800173346959e-26</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.374726369529306e-26</v>
+        <v>1.366656257332065e-26</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.380929712472604e-26</v>
+        <v>1.372823485100071e-26</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.38451134199457e-26</v>
+        <v>1.376423652901814e-26</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.385596219027246e-26</v>
+        <v>1.377578556988141e-26</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.384309304502663e-26</v>
+        <v>1.37640999360989e-26</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.380775559352859e-26</v>
+        <v>1.373039759017904e-26</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.375119944509863e-26</v>
+        <v>1.367589649463017e-26</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.367467420905713e-26</v>
+        <v>1.360181461196074e-26</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.357942949472452e-26</v>
+        <v>1.350936990467924e-26</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.346671491142099e-26</v>
+        <v>1.339978033529389e-26</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.333778006846695e-26</v>
+        <v>1.327426386631319e-26</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.319387457518291e-26</v>
+        <v>1.313403846024568e-26</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.303624804088894e-26</v>
+        <v>1.29803220795995e-26</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.286615007490567e-26</v>
+        <v>1.281433268688334e-26</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.268483028655316e-26</v>
+        <v>1.263728824460531e-26</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.249353828515189e-26</v>
+        <v>1.245040671527395e-26</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.22935236800224e-26</v>
+        <v>1.225490606139786e-26</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.208603608048468e-26</v>
+        <v>1.205200424548508e-26</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.187232509585925e-26</v>
+        <v>1.18429192300442e-26</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.165364033546666e-26</v>
+        <v>1.16288689775838e-26</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.143123140862688e-26</v>
+        <v>1.141107145061193e-26</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.120634792466043e-26</v>
+        <v>1.119074461163717e-26</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.098023949288788e-26</v>
+        <v>1.096910642316813e-26</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.075415572262917e-26</v>
+        <v>1.074737484771281e-26</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.052934622320504e-26</v>
+        <v>1.052676784778002e-26</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.030706060393546e-26</v>
+        <v>1.030850338587778e-26</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.008854847414095e-26</v>
+        <v>1.009379942451466e-26</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>9.875059443142079e-27</v>
+        <v>9.883873926199295e-27</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>9.667843120258793e-27</v>
+        <v>9.679944853439684e-27</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>9.468149114811643e-27</v>
+        <v>9.483230168744437e-27</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>9.277227036121146e-27</v>
+        <v>9.294947834622123e-27</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>9.096326493507306e-27</v>
+        <v>9.116315813580809e-27</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>8.926697096290648e-27</v>
+        <v>8.948552068129075e-27</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>8.769588453791658e-27</v>
+        <v>8.792874560775461e-27</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>8.6262501753304e-27</v>
+        <v>8.650501254028092e-27</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>8.497931870227483e-27</v>
+        <v>8.522650110395633e-27</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>8.385883147803022e-27</v>
+        <v>8.410539092386254e-27</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>8.291353596997617e-27</v>
+        <v>8.315386142728217e-27</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>8.21500788868538e-27</v>
+        <v>8.237841495179957e-27</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>8.155396122049388e-27</v>
+        <v>8.176503025426008e-27</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>8.110590707981633e-27</v>
+        <v>8.129504975108513e-27</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>8.078664057374281e-27</v>
+        <v>8.094981585869798e-27</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>8.057688581119381e-27</v>
+        <v>8.071067099352055e-27</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>8.045736690109046e-27</v>
+        <v>8.055895757197562e-27</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.040880795235378e-27</v>
+        <v>8.047601801048574e-27</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.04119330739046e-27</v>
+        <v>8.04431947254732e-27</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.044746637466391e-27</v>
+        <v>8.044183013336059e-27</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.049613196355261e-27</v>
+        <v>8.045326665057036e-27</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.053865394949166e-27</v>
+        <v>8.045884669352497e-27</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.055575644140196e-27</v>
+        <v>8.04399126786469e-27</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.052816354820454e-27</v>
+        <v>8.037780702235871e-27</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.04365993788202e-27</v>
+        <v>8.025387214108274e-27</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.026178804217013e-27</v>
+        <v>8.004945045124171e-27</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>7.998445364717489e-27</v>
+        <v>7.974588436925771e-27</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>7.958532030275553e-27</v>
+        <v>7.932451631155336e-27</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>7.904623792822333e-27</v>
+        <v>7.87677871646609e-27</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>7.836882186771959e-27</v>
+        <v>7.807742323703479e-27</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>7.757154994488413e-27</v>
+        <v>7.727160381168387e-27</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>7.667344060870163e-27</v>
+        <v>7.636903566788732e-27</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>7.569351230815436e-27</v>
+        <v>7.538842558492177e-27</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>7.465078349222684e-27</v>
+        <v>7.43484803420662e-27</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.356427260990395e-27</v>
+        <v>7.326790671859993e-27</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>7.245299811016755e-27</v>
+        <v>7.216541149379928e-27</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>7.133597844200343e-27</v>
+        <v>7.105970144694445e-27</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>7.023223205439338e-27</v>
+        <v>6.996948335731167e-27</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>6.916077739632231e-27</v>
+        <v>6.891346400418027e-27</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>6.814063291677489e-27</v>
+        <v>6.791035016682937e-27</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>6.719081706473314e-27</v>
+        <v>6.697884862453541e-27</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>6.633034828918181e-27</v>
+        <v>6.613766615657761e-27</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>6.557816477187735e-27</v>
+        <v>6.540542801301647e-27</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>6.493942592601636e-27</v>
+        <v>6.478676404058224e-27</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>6.439000461437952e-27</v>
+        <v>6.425655708187704e-27</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>6.390202725257795e-27</v>
+        <v>6.378588462933942e-27</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>6.344762025622143e-27</v>
+        <v>6.334582417540659e-27</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>6.299891004092151e-27</v>
+        <v>6.290745321251748e-27</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>6.252802302228804e-27</v>
+        <v>6.244184923310942e-27</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>6.200708561593211e-27</v>
+        <v>6.192008972962086e-27</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>6.140822423746437e-27</v>
+        <v>6.131325219448989e-27</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>6.070482190563905e-27</v>
+        <v>6.059377103283336e-27</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>5.990982371461716e-27</v>
+        <v>5.977680080528806e-27</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>5.908275931758257e-27</v>
+        <v>5.892779928802767e-27</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>5.828583123302038e-27</v>
+        <v>5.811511048652968e-27</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>5.758124197941802e-27</v>
+        <v>5.740707840627395e-27</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>5.703119407526256e-27</v>
+        <v>5.687204705273998e-27</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>5.66978900390397e-27</v>
+        <v>5.657836043140588e-27</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>5.663629766472232e-27</v>
+        <v>5.658642332477368e-27</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>5.677912352495686e-27</v>
+        <v>5.682247381753877e-27</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>5.695723518092205e-27</v>
+        <v>5.710099416758372e-27</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>5.699839272825225e-27</v>
+        <v>5.723305657041694e-27</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>5.673035626258234e-27</v>
+        <v>5.702973322154744e-27</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>5.6032144228765e-27</v>
+        <v>5.635754944830243e-27</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>5.501212622741523e-27</v>
+        <v>5.533115093434474e-27</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>5.384279325580306e-27</v>
+        <v>5.413455220403021e-27</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>5.269663930014512e-27</v>
+        <v>5.295177101526486e-27</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.171708313470698e-27</v>
+        <v>5.193602610301753e-27</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.091792465243015e-27</v>
+        <v>5.11032324775001e-27</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.027685686921757e-27</v>
+        <v>5.043105756758349e-27</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>4.977157127199541e-27</v>
+        <v>4.9897167182512e-27</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>4.937975934768856e-27</v>
+        <v>4.947922713152852e-27</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>4.907911258322335e-27</v>
+        <v>4.915490322387747e-27</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>4.88473224655257e-27</v>
+        <v>4.890186126880288e-27</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>4.866208048152104e-27</v>
+        <v>4.869776707554818e-27</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.850107811813549e-27</v>
+        <v>4.852028645335763e-27</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.83420068622946e-27</v>
+        <v>4.834708521147478e-27</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.81625582009243e-27</v>
+        <v>4.815582915914367e-27</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.794042362095037e-27</v>
+        <v>4.792418410560813e-27</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.765329460929888e-27</v>
+        <v>4.762981586011234e-27</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.727966183006846e-27</v>
+        <v>4.725118872144088e-27</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.681731455400629e-27</v>
+        <v>4.678604899002218e-27</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.628386459503286e-27</v>
+        <v>4.625194845364509e-27</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.569782775511971e-27</v>
+        <v>4.566734211033552e-27</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.507771983623856e-27</v>
+        <v>4.505068495811955e-27</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>4.444205664035942e-27</v>
+        <v>4.442043199502158e-27</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>4.3809353969454e-27</v>
+        <v>4.37950382190677e-27</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>4.319812762549398e-27</v>
+        <v>4.319295862828395e-27</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.26268934104494e-27</v>
+        <v>4.263264822069476e-27</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>4.211416712629197e-27</v>
+        <v>4.21325619943262e-27</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>4.167846457499322e-27</v>
+        <v>4.171115494720416e-27</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>4.133830155852347e-27</v>
+        <v>4.13868820773534e-27</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.111219387885447e-27</v>
+        <v>4.117819838279996e-27</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.10147411397211e-27</v>
+        <v>4.109946774666758e-27</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>4.103835777713694e-27</v>
+        <v>4.114187798570375e-27</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.11676550751317e-27</v>
+        <v>4.128846523754362e-27</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.138723569372142e-27</v>
+        <v>4.152225663061776e-27</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.168170229292182e-27</v>
+        <v>4.182627929335644e-27</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.203565753274836e-27</v>
+        <v>4.218356035418962e-27</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.243370407321751e-27</v>
+        <v>4.257712694154832e-27</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>4.286044457434473e-27</v>
+        <v>4.299000618386254e-27</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>4.330048245720448e-27</v>
+        <v>4.340522599718527e-27</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>4.387580759412666e-27</v>
+        <v>4.394799608391095e-27</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.522905838090379e-27</v>
+        <v>4.528234737986387e-27</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>4.811942561315636e-27</v>
+        <v>4.819289978341919e-27</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>5.286909939010966e-27</v>
+        <v>5.300997833110263e-27</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>5.910427361475979e-27</v>
+        <v>5.934036803210815e-27</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>6.638903805695623e-27</v>
+        <v>6.672629201089803e-27</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>7.428748248653183e-27</v>
+        <v>7.470997339191768e-27</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>8.236369667331735e-27</v>
+        <v>8.283363529961043e-27</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>9.018135384001586e-27</v>
+        <v>9.063939779464318e-27</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>9.727756830424449e-27</v>
+        <v>9.766280962479816e-27</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.031473614079237e-26</v>
+        <v>1.034290047217388e-26</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.072820230765303e-26</v>
+        <v>1.074621937748298e-26</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.091728432355232e-26</v>
+        <v>1.092865874734184e-26</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.084002464536704e-26</v>
+        <v>1.085118424666398e-26</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.054100366044509e-26</v>
+        <v>1.055771824779662e-26</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.011346479788912e-26</v>
+        <v>1.013883232876707e-26</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>9.651193791180359e-27</v>
+        <v>9.685617929649611e-27</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>9.247976373798747e-27</v>
+        <v>9.289166490517257e-27</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.989187037709878e-27</v>
+        <v>9.032378142506499e-27</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.865582211962378e-27</v>
+        <v>8.906008975590735e-27</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.808343346792435e-27</v>
+        <v>8.842797835141797e-27</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.74772293354368e-27</v>
+        <v>8.774578897551879e-27</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.613973463559625e-27</v>
+        <v>8.63318633921303e-27</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.338359325671061e-27</v>
+        <v>8.351448876029917e-27</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>7.898553513644018e-27</v>
+        <v>7.907807740898809e-27</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.336958549854427e-27</v>
+        <v>7.344323332336141e-27</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>6.700780680408199e-27</v>
+        <v>6.707777370056518e-27</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.037226151411509e-27</v>
+        <v>6.044951573774797e-27</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>5.393501208968707e-27</v>
+        <v>5.402627663204017e-27</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.81681209918644e-27</v>
+        <v>4.827587358059519e-27</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.35361625751715e-27</v>
+        <v>4.365869349971796e-27</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.024227772290628e-27</v>
+        <v>4.0375708712262e-27</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.816622630854885e-27</v>
+        <v>3.830700778890356e-27</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.716771469744937e-27</v>
+        <v>3.731278065216793e-27</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.710644925496398e-27</v>
+        <v>3.725321722458642e-27</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.784213634644552e-27</v>
+        <v>3.798850742868698e-27</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.923448233724915e-27</v>
+        <v>3.937884118699993e-27</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>4.114319359272836e-27</v>
+        <v>4.128440842205389e-27</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>4.342797647823471e-27</v>
+        <v>4.356539905637559e-27</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>4.59485373591262e-27</v>
+        <v>4.608200301249815e-27</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.856458260075237e-27</v>
+        <v>4.869441021294623e-27</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>5.113581856847175e-27</v>
+        <v>5.126281058025356e-27</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>5.352195162763585e-27</v>
+        <v>5.364739403694672e-27</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>5.558485356090648e-27</v>
+        <v>5.571049625697665e-27</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>5.724513526757679e-27</v>
+        <v>5.73726585740386e-27</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.848758598425287e-27</v>
+        <v>5.861801780434161e-27</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.930025088422472e-27</v>
+        <v>5.943393713101406e-27</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.9671175140786e-27</v>
+        <v>5.980777973718801e-27</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.958840392722803e-27</v>
+        <v>5.972690880599313e-27</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.903998241684368e-27</v>
+        <v>5.917868752056069e-27</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.801395578292423e-27</v>
+        <v>5.815047906402034e-27</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.649841540810731e-27</v>
+        <v>5.662969324050387e-27</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>5.451819185995838e-27</v>
+        <v>5.464080632997839e-27</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>5.220086669741601e-27</v>
+        <v>5.231196096065103e-27</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.969184696742697e-27</v>
+        <v>4.97892840470381e-27</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.713653971693872e-27</v>
+        <v>4.72189025036566e-27</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.468035199289171e-27</v>
+        <v>4.474694324501646e-27</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.246869084223524e-27</v>
+        <v>4.251953318563657e-27</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.06469633119104e-27</v>
+        <v>4.06827992400275e-27</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.936057644886447e-27</v>
+        <v>3.938286832270608e-27</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.875493730004283e-27</v>
+        <v>3.876586734818721e-27</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.897545291238942e-27</v>
+        <v>3.897792323098438e-27</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.016753033285031e-27</v>
+        <v>4.016516288561314e-27</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.247657660836803e-27</v>
+        <v>4.247371322658559e-27</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.604799878589181e-27</v>
+        <v>4.604970116842047e-27</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>5.099547974942896e-27</v>
+        <v>5.100739892595923e-27</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.703573527447105e-27</v>
+        <v>5.706247818842219e-27</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.361532781207634e-27</v>
+        <v>6.365934570945333e-27</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.017564198842123e-27</v>
+        <v>7.023720911240295e-27</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>7.615806242970509e-27</v>
+        <v>7.623527602064448e-27</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>8.10039737621091e-27</v>
+        <v>8.109275405753294e-27</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>8.42216990206238e-27</v>
+        <v>8.431617869439847e-27</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>8.593148320759759e-27</v>
+        <v>8.602756745426057e-27</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>8.658151719381564e-27</v>
+        <v>8.667879167601025e-27</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>9.055112621269363e-27</v>
+        <v>9.06576441595596e-27</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.068168520997052e-26</v>
+        <v>1.06952068413946e-26</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.278335940896054e-26</v>
+        <v>1.280040379889883e-26</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.442389916105151e-26</v>
+        <v>1.444357029026971e-26</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.476115537140028e-26</v>
+        <v>1.478117372691919e-26</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.394479467136027e-26</v>
+        <v>1.396324130531647e-26</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.271906422865436e-26</v>
+        <v>1.273542629874233e-26</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.182999407934765e-26</v>
+        <v>1.184516572989094e-26</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.155248430671458e-26</v>
+        <v>1.156776902774424e-26</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.138947027508262e-26</v>
+        <v>1.140495230883228e-26</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.108798368903438e-26</v>
+        <v>1.11031497283904e-26</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.06646814271397e-26</v>
+        <v>1.067907996625495e-26</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.014466467704436e-26</v>
+        <v>1.015792666134024e-26</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>9.553034626395236e-27</v>
+        <v>9.56487345256166e-27</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>8.914892462839505e-27</v>
+        <v>8.925103978834873e-27</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>8.255339374022554e-27</v>
+        <v>8.263801879073784e-27</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>7.598621840204665e-27</v>
+        <v>7.60529573541253e-27</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>6.956727506468854e-27</v>
+        <v>6.961650283535648e-27</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>6.332471128760263e-27</v>
+        <v>6.335753620217112e-27</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>5.728446261343949e-27</v>
+        <v>5.73027255012608e-27</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>5.147246458484898e-27</v>
+        <v>5.147873877931638e-27</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.591465274446538e-27</v>
+        <v>4.591224408301305e-27</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>4.063696263494333e-27</v>
+        <v>4.062990945904649e-27</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.566532979891801e-27</v>
+        <v>3.565840295409287e-27</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>3.102575315041997e-27</v>
+        <v>3.102445198905268e-27</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.676220036527478e-27</v>
+        <v>2.677161936096979e-27</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.296122521859987e-27</v>
+        <v>2.298336783374304e-27</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.971555137073796e-27</v>
+        <v>1.974894088892603e-27</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.711790248202981e-27</v>
+        <v>1.715758200807037e-27</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.525364089618548e-27</v>
+        <v>1.529138700171658e-27</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.408439914871762e-27</v>
+        <v>1.411231285095252e-27</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.346909932715589e-27</v>
+        <v>1.348258702808376e-27</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.32635518099031e-27</v>
+        <v>1.326141560663126e-27</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.332356697536373e-27</v>
+        <v>1.33080046601177e-27</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.350495520194182e-27</v>
+        <v>1.348156026206526e-27</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.366352686804124e-27</v>
+        <v>1.364128848599601e-27</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.366803068491914e-27</v>
+        <v>1.365875075701587e-27</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.351902833243704e-27</v>
+        <v>1.353138218031714e-27</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.329405168264978e-27</v>
+        <v>1.333011989545874e-27</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.30715971549491e-27</v>
+        <v>1.312682212832514e-27</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.293016116872608e-27</v>
+        <v>1.299334710480019e-27</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.294783803182403e-27</v>
+        <v>1.300119206369772e-27</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.314096389200006e-27</v>
+        <v>1.316641217213155e-27</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.339814490902079e-27</v>
+        <v>1.339039572335604e-27</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.359785712357064e-27</v>
+        <v>1.356535743314026e-27</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.369758431782175e-27</v>
+        <v>1.365333665624922e-27</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.371261385858799e-27</v>
+        <v>1.366745779752373e-27</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.365955574308037e-27</v>
+        <v>1.362201416232334e-27</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.355501996851004e-27</v>
+        <v>1.353129905600769e-27</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.341561653208783e-27</v>
+        <v>1.340960578393613e-27</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.325795543102497e-27</v>
+        <v>1.32712276514684e-27</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.309855652792027e-27</v>
+        <v>1.313038073093565e-27</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.294784489412369e-27</v>
+        <v>1.299605869260003e-27</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.280638111042478e-27</v>
+        <v>1.286880268820268e-27</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.267382644651404e-27</v>
+        <v>1.274838328293748e-27</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.254984217208237e-27</v>
+        <v>1.26345710419987e-27</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.243408955682063e-27</v>
+        <v>1.252713653058056e-27</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.232622987041937e-27</v>
+        <v>1.242585031387699e-27</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.222592438256945e-27</v>
+        <v>1.233048295708223e-27</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.213283436296172e-27</v>
+        <v>1.224080502539049e-27</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.204662108128677e-27</v>
+        <v>1.215658708399573e-27</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.196694580723551e-27</v>
+        <v>1.207759969809225e-27</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.189346981049856e-27</v>
+        <v>1.200361343287403e-27</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.182585436076675e-27</v>
+        <v>1.193439885353528e-27</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.17637607277309e-27</v>
+        <v>1.186972652527018e-27</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.170685018108164e-27</v>
+        <v>1.180936701327276e-27</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.165478399050982e-27</v>
+        <v>1.175309088273719e-27</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.160722342570621e-27</v>
+        <v>1.170066869885767e-27</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.156382975636149e-27</v>
+        <v>1.165187102682823e-27</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.152426425216648e-27</v>
+        <v>1.160646843184304e-27</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.148818818281195e-27</v>
+        <v>1.156423147909628e-27</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.145526281798861e-27</v>
+        <v>1.152493073378201e-27</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.142514942738727e-27</v>
+        <v>1.148833676109442e-27</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.139750928069864e-27</v>
+        <v>1.145422012622759e-27</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.13720036476135e-27</v>
+        <v>1.142235139437567e-27</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.134829379782263e-27</v>
+        <v>1.139250113073281e-27</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.132604100101678e-27</v>
+        <v>1.136443990049315e-27</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.130490652688669e-27</v>
+        <v>1.133793826885078e-27</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.128463872532092e-27</v>
+        <v>1.131283832341574e-27</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.126547090327084e-27</v>
+        <v>1.128938046624382e-27</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.124780419699122e-27</v>
+        <v>1.126794294424585e-27</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.123203990491326e-27</v>
+        <v>1.124890413753451e-27</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.121857932546812e-27</v>
+        <v>1.123264242622247e-27</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.120782375708697e-27</v>
+        <v>1.121953619042243e-27</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.120017449820102e-27</v>
+        <v>1.120996381024708e-27</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.119603284724141e-27</v>
+        <v>1.12043036658091e-27</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.119580010263935e-27</v>
+        <v>1.120293413722119e-27</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.1199877562826e-27</v>
+        <v>1.120623360459602e-27</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.120866652623255e-27</v>
+        <v>1.121458044804629e-27</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.122256829129016e-27</v>
+        <v>1.122835304768468e-27</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.124198415643004e-27</v>
+        <v>1.12479297836239e-27</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.126731542008334e-27</v>
+        <v>1.127368903597662e-27</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.129896338068123e-27</v>
+        <v>1.130600918485551e-27</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.133732933665493e-27</v>
+        <v>1.13452686103733e-27</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.13828145864356e-27</v>
+        <v>1.139184569264267e-27</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.143582042845436e-27</v>
+        <v>1.144611881177624e-27</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.149674816114249e-27</v>
+        <v>1.15084663478868e-27</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.156599908293113e-27</v>
+        <v>1.1579266681087e-27</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.164397449225138e-27</v>
+        <v>1.165889819148946e-27</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.173107568753456e-27</v>
+        <v>1.174773925920699e-27</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.182770396721168e-27</v>
+        <v>1.184616826435212e-27</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.193426062971411e-27</v>
+        <v>1.195456358703773e-27</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.205114697347293e-27</v>
+        <v>1.207330360737642e-27</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.21787642969192e-27</v>
+        <v>1.220276670548075e-27</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.231751389848434e-27</v>
+        <v>1.234333126146365e-27</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.246779707659942e-27</v>
+        <v>1.249537565543769e-27</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.263001512969545e-27</v>
+        <v>1.265927826751541e-27</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.280456935620391e-27</v>
+        <v>1.283541747780978e-27</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.299186105455584e-27</v>
+        <v>1.302417166643337e-27</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.319229152318224e-27</v>
+        <v>1.322591921349866e-27</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.340626206051463e-27</v>
+        <v>1.344103849911871e-27</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.363417396498382e-27</v>
+        <v>1.366990790340582e-27</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.387642853502138e-27</v>
+        <v>1.391290580647309e-27</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.413393791194391e-27</v>
+        <v>1.417092682892056e-27</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.441002799811015e-27</v>
+        <v>1.444730485635982e-27</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.470873692731179e-27</v>
+        <v>1.474609353132298e-27</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.503410293657382e-27</v>
+        <v>1.507134660066618e-27</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.539016426292007e-27</v>
+        <v>1.542711781124438e-27</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.57809591433756e-27</v>
+        <v>1.581746090991384e-27</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.621052581496454e-27</v>
+        <v>1.624642964352984e-27</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.668290251471088e-27</v>
+        <v>1.67180777589475e-27</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.720212747963989e-27</v>
+        <v>1.723645900302327e-27</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.77722389467756e-27</v>
+        <v>1.780562712261234e-27</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.839727515314184e-27</v>
+        <v>1.842963586456969e-27</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.908075734129505e-27</v>
+        <v>1.911202125895965e-27</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.981697197933261e-27</v>
+        <v>1.984707165894268e-27</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.059224231103357e-27</v>
+        <v>2.062110106747343e-27</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.139263064657579e-27</v>
+        <v>2.142016218933966e-27</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.220419929613433e-27</v>
+        <v>2.223030772932636e-27</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.30130105698871e-27</v>
+        <v>2.303759039222141e-27</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.380512677800984e-27</v>
+        <v>2.382806288281043e-27</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.456661023067834e-27</v>
+        <v>2.458777790587918e-27</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>2.528352323807042e-27</v>
+        <v>2.53027881662154e-27</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.594192811036185e-27</v>
+        <v>2.595914636860479e-27</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.652788715772859e-27</v>
+        <v>2.654290521783324e-27</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.702746269034817e-27</v>
+        <v>2.704011741868822e-27</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.742671701839646e-27</v>
+        <v>2.743683567595553e-27</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.771171245204975e-27</v>
+        <v>2.771911269442138e-27</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.786851130148499e-27</v>
+        <v>2.787300117887266e-27</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.789077416482364e-27</v>
+        <v>2.789217711868141e-27</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.780721731237219e-27</v>
+        <v>2.780548750059977e-27</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.765666001347788e-27</v>
+        <v>2.765191554699164e-27</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.74779224805222e-27</v>
+        <v>2.747044542635748e-27</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.73098249258861e-27</v>
+        <v>2.730006130719724e-27</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.719118756195106e-27</v>
+        <v>2.717974735801139e-27</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.716083060109837e-27</v>
+        <v>2.714848774730022e-27</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.725757425570926e-27</v>
+        <v>2.724526664356395e-27</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.752019996857998e-27</v>
+        <v>2.750902922600164e-27</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.797547933873254e-27</v>
+        <v>2.796664276748189e-27</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.862123221750234e-27</v>
+        <v>2.861585871695129e-27</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.945100354054005e-27</v>
+        <v>2.945012938073794e-27</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>3.045833824349564e-27</v>
+        <v>3.04629070651693e-27</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>3.163678126202194e-27</v>
+        <v>3.164764407657564e-27</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>3.297987753176908e-27</v>
+        <v>3.299779272128456e-27</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>3.448117198838664e-27</v>
+        <v>3.45068053056231e-27</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.613420956752831e-27</v>
+        <v>3.616813413592242e-27</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.79307978236039e-27</v>
+        <v>3.797347489188614e-27</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.984154384965879e-27</v>
+        <v>3.989308794931969e-27</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>4.182288498091445e-27</v>
+        <v>4.188290696443989e-27</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>4.383099926619469e-27</v>
+        <v>4.389860343488902e-27</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>4.582206475432877e-27</v>
+        <v>4.589584885831482e-27</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>4.775225949414051e-27</v>
+        <v>4.783031473235956e-27</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>4.957776153445396e-27</v>
+        <v>4.965767255466579e-27</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>5.125474892409804e-27</v>
+        <v>5.133359382288089e-27</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>5.273939971189668e-27</v>
+        <v>5.281375003464728e-27</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>5.398885296893978e-27</v>
+        <v>5.405486197322773e-27</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>5.497392906333123e-27</v>
+        <v>5.502858825291509e-27</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>5.567563408818183e-27</v>
+        <v>5.571770870252777e-27</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>5.607521691117879e-27</v>
+        <v>5.610526822265285e-27</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>5.615392640000731e-27</v>
+        <v>5.617431171387539e-27</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>5.589301142235369e-27</v>
+        <v>5.590788407678156e-27</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>5.527372735894774e-27</v>
+        <v>5.528903606635697e-27</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>5.428789703166658e-27</v>
+        <v>5.431031722600324e-27</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>5.295939996136739e-27</v>
+        <v>5.299309200300304e-27</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>5.131817149628296e-27</v>
+        <v>5.136416826486907e-27</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.939414698572269e-27</v>
+        <v>4.945035388043637e-27</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.722017248084481e-27</v>
+        <v>4.728203394772247e-27</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.484048730166954e-27</v>
+        <v>4.490359580062512e-27</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>4.230211803221169e-27</v>
+        <v>4.236285229809186e-27</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.965209125647725e-27</v>
+        <v>3.970761629906153e-27</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.6937433558479e-27</v>
+        <v>3.698570066247963e-27</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.420517152222755e-27</v>
+        <v>3.424491824728961e-27</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.150233173173585e-27</v>
+        <v>3.153308191243723e-27</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.88759407710096e-27</v>
+        <v>2.889800451686093e-27</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.637302522406403e-27</v>
+        <v>2.638749891950878e-27</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.403455533758151e-27</v>
+        <v>2.404320457961807e-27</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.186662832293953e-27</v>
+        <v>2.18712138634825e-27</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.98628849329093e-27</v>
+        <v>1.986492190906577e-27</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.801695037411477e-27</v>
+        <v>1.801770800769447e-27</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.63224498531854e-27</v>
+        <v>1.632295145070065e-27</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.477300857675011e-27</v>
+        <v>1.477403152941583e-27</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.336225175143368e-27</v>
+        <v>1.336432753516739e-27</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.208380458386514e-27</v>
+        <v>1.208721875928698e-27</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.093129303284272e-27</v>
+        <v>1.093608613859399e-27</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.898415986778403e-28</v>
+        <v>9.904470154797111e-28</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>8.979005161125786e-28</v>
+        <v>8.986201869435726e-28</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>8.166906370261468e-28</v>
+        <v>8.175143187642743e-28</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.455965428564577e-28</v>
+        <v>7.465156014553589e-28</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>6.840028150413873e-28</v>
+        <v>6.850102255303339e-28</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>6.312940350186503e-28</v>
+        <v>6.323843815025443e-28</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>5.868547842261309e-28</v>
+        <v>5.880242598855055e-28</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>5.500696441016842e-28</v>
+        <v>5.513160511927031e-28</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>5.203102494508191e-28</v>
+        <v>5.216327439885521e-28</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>4.966412618991459e-28</v>
+        <v>4.980342999298172e-28</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>4.778151697172789e-28</v>
+        <v>4.792623510393955e-28</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>4.625704744165375e-28</v>
+        <v>4.640442667521259e-28</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>4.496456775083043e-28</v>
+        <v>4.511074165029104e-28</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.377792805039095e-28</v>
+        <v>4.391791697265985e-28</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.257097849147182e-28</v>
+        <v>4.26986895858075e-28</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>4.121756922520959e-28</v>
+        <v>4.132579643322249e-28</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.959155040273723e-28</v>
+        <v>3.967197445838969e-28</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>3.764127449170277e-28</v>
+        <v>3.768661031283617e-28</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>3.563688512587012e-28</v>
+        <v>3.565015684961261e-28</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>3.393538612046272e-28</v>
+        <v>3.393243068736519e-28</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>3.288728597134943e-28</v>
+        <v>3.28964085811166e-28</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>3.2423752004058e-28</v>
+        <v>3.246348426773092e-28</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>3.191156113108167e-28</v>
+        <v>3.196143318573717e-28</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>3.131806960749185e-28</v>
+        <v>3.135499083675179e-28</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>3.087070327847036e-28</v>
+        <v>3.088453955287085e-28</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.079751683878683e-28</v>
+        <v>3.079112818162436e-28</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.131531232956508e-28</v>
+        <v>3.130411176604979e-28</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.238091377869286e-28</v>
+        <v>3.238267511602601e-28</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.369051722149053e-28</v>
+        <v>3.371515734704734e-28</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.492893604350806e-28</v>
+        <v>3.497806867760206e-28</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.578098363029959e-28</v>
+        <v>3.584791932618274e-28</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.59316420046867e-28</v>
+        <v>3.600139227082125e-28</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.524116330269211e-28</v>
+        <v>3.529472501200545e-28</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.407651460618201e-28</v>
+        <v>3.410325644441117e-28</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.289569860010278e-28</v>
+        <v>3.289558639544835e-28</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.213647105376618e-28</v>
+        <v>3.21196473723613e-28</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.185671450650891e-28</v>
+        <v>3.183561101017532e-28</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.177675689768553e-28</v>
+        <v>3.175908540065351e-28</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.160518000650114e-28</v>
+        <v>3.15936885795472e-28</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.110863894155907e-28</v>
+        <v>3.110210387137367e-28</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.029962384481564e-28</v>
+        <v>3.029704877957949e-28</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.925566409463277e-28</v>
+        <v>2.925739098910111e-28</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.805428948338013e-28</v>
+        <v>2.806199860595448e-28</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.677302980342797e-28</v>
+        <v>2.678973973615606e-28</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.548941116463271e-28</v>
+        <v>2.551947850060264e-28</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.42677558838155e-28</v>
+        <v>2.431579022137342e-28</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.31295152638097e-28</v>
+        <v>2.319685633264492e-28</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.208745483263304e-28</v>
+        <v>2.217145875069923e-28</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.115434011830639e-28</v>
+        <v>2.124837939182152e-28</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.03429366488502e-28</v>
+        <v>2.043640017229658e-28</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.96660099522828e-28</v>
+        <v>1.974430300840709e-28</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.913632484957009e-28</v>
+        <v>1.918086935739403e-28</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.873367813646472e-28</v>
+        <v>1.873347315270406e-28</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.836149487296051e-28</v>
+        <v>1.833854808395392e-28</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.8008294686272e-28</v>
+        <v>1.798437631902633e-28</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.767999166189418e-28</v>
+        <v>1.767000994649194e-28</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.738249988532113e-28</v>
+        <v>1.739450105492058e-28</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.712173344204807e-28</v>
+        <v>1.715690173288314e-28</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.69019941609622e-28</v>
+        <v>1.695569626241508e-28</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.671993983118086e-28</v>
+        <v>1.678667683813112e-28</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.656996510896274e-28</v>
+        <v>1.664483862170469e-28</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.64464643031532e-28</v>
+        <v>1.652517665245645e-28</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.634383172259798e-28</v>
+        <v>1.642268596970749e-28</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.625646167614276e-28</v>
+        <v>1.633236161277883e-28</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.617874847263299e-28</v>
+        <v>1.624919862099124e-28</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.610508642091436e-28</v>
+        <v>1.616819203366575e-28</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.602986982983255e-28</v>
+        <v>1.608433689012339e-28</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.594749300823303e-28</v>
+        <v>1.599262822968495e-28</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.585235026496157e-28</v>
+        <v>1.588806109167154e-28</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.573884756842289e-28</v>
+        <v>1.576564121648174e-28</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.560363140563247e-28</v>
+        <v>1.562243067987285e-28</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.544823807337519e-28</v>
+        <v>1.545997939746105e-28</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.527484890942649e-28</v>
+        <v>1.528042929984964e-28</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.508564525156221e-28</v>
+        <v>1.508592231764241e-28</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.488280843755829e-28</v>
+        <v>1.487860038144318e-28</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.466851980519006e-28</v>
+        <v>1.466060542185519e-28</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.444496069223345e-28</v>
+        <v>1.443407936948226e-28</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.421431243646439e-28</v>
+        <v>1.420116415492821e-28</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.397875637565818e-28</v>
+        <v>1.396400170879627e-28</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.374047384759098e-28</v>
+        <v>1.372473396169049e-28</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.350164619003808e-28</v>
+        <v>1.348550284421405e-28</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.326445474077542e-28</v>
+        <v>1.32484502869708e-28</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.303108083757894e-28</v>
+        <v>1.301571822056458e-28</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.280370581822393e-28</v>
+        <v>1.278944857559858e-28</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.258451102048634e-28</v>
+        <v>1.257178328267666e-28</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.237567778214208e-28</v>
+        <v>1.236486427240262e-28</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.217938744096651e-28</v>
+        <v>1.217083347537972e-28</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.199782133473552e-28</v>
+        <v>1.199183282221176e-28</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.183288089592577e-28</v>
+        <v>1.182971150819143e-28</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.168517651654266e-28</v>
+        <v>1.168496851075199e-28</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.155494660886137e-28</v>
+        <v>1.155771377717131e-28</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.144242955061713e-28</v>
+        <v>1.144805721860412e-28</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.134786371954557e-28</v>
+        <v>1.135610874620554e-28</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.127148749338215e-28</v>
+        <v>1.128197827113054e-28</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.121353924986238e-28</v>
+        <v>1.122577570453414e-28</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.117425736672164e-28</v>
+        <v>1.118761095757123e-28</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.115388022169548e-28</v>
+        <v>1.116759394139684e-28</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.115264619251933e-28</v>
+        <v>1.116583456716592e-28</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.11707936569287e-28</v>
+        <v>1.118244274603347e-28</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.120856099265902e-28</v>
+        <v>1.121752838915444e-28</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.126618657744583e-28</v>
+        <v>1.127120140768386e-28</v>
       </c>
     </row>
   </sheetData>
